--- a/va_facility_data_2025-02-20/Salem VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Salem%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Salem VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Salem%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R483d4e33a97743dc989eda6bce686e51"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5fc88358b498455c9ce9e79915eb9b80"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4958d72c3d3742719afd03b0b7e60b20"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2c2f2e6c3fe3431586e3e0b4bf5c7eb0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8de4c6106505476d8721c94ffc37949e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3c4fc6625ab04987879d4701d6717807"/>
   </x:sheets>
 </x:workbook>
 </file>
